--- a/Ontap/Excel/Excel_De02.xlsx
+++ b/Ontap/Excel/Excel_De02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTS\TaiLieuChuyenMon\GiangDay\THCS_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DULIEU" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>Câu hỏi 1. (0,5đ) Nơi đến căn cứ vào ký tự 3,4 của Mã bưu kiện và đối chiếu với Bảng 1</t>
   </si>
   <si>
-    <t>Câu hỏi 2. (1,0đ) Phương tiện căn cứ vào ký tự đầu của Mã bưu kiện (định dạng number) và đối chiếu với Bảng 2</t>
-  </si>
-  <si>
     <t>Câu hỏi 3. (0,5đ) Nếu ký tự cuối của Mã bưu kiện là "E" thì hình thức là "Chuyển nhanh". Còn "N" được hiểu là "Chuyển thường"</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Câu 7. (0,5đ) Sắp xếp bảng tính tăng dần theo Nơi đến. Nếu có cùng nơi đến thì sắp xếp giảm dần theo trọng lượng</t>
+  </si>
+  <si>
+    <t>Câu hỏi 2. (1,0đ) Phương tiện căn cứ vào 2 ký tự đầu của Mã bưu kiện (định dạng number) và đối chiếu với Bảng 2</t>
   </si>
 </sst>
 </file>
@@ -216,9 +216,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -334,29 +334,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -646,275 +646,275 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>500</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>200</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>250</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>150</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>250</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="F12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1900</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>1800</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1700</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1500</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1400</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1200</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -934,47 +934,47 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
